--- a/Puntos/SegundoPunto/Calculos.xlsx
+++ b/Puntos/SegundoPunto/Calculos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Desktop\Personal\Personal\Taller_GestiondeDatos\Puntos\SegundoPunto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED19AEE4-CD13-4FD0-B8B1-2A70D4274CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC065D-D458-4263-AF7F-52F727E75CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4AEEC09F-91B2-43A0-92F2-74154DB124D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4AEEC09F-91B2-43A0-92F2-74154DB124D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Año Generos" sheetId="1" r:id="rId1"/>
+    <sheet name="Años Grupo Etario" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">año </t>
-  </si>
-  <si>
-    <t>genero</t>
-  </si>
-  <si>
-    <t>femenino</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>masculino</t>
-  </si>
-  <si>
-    <t>total_año</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="19">
   <si>
     <t>Razon mujer</t>
   </si>
@@ -75,6 +58,42 @@
   </si>
   <si>
     <t>Proporción hombre</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Género</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Total año</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Adolescente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adulto </t>
+  </si>
+  <si>
+    <t>Menores</t>
+  </si>
+  <si>
+    <t>Grupo Etario/Años</t>
+  </si>
+  <si>
+    <t>Total año Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Año </t>
   </si>
 </sst>
 </file>
@@ -118,16 +137,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2044D750-3428-4075-B1C8-B051FE69FE8C}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,96 +489,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>2010</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
         <v>99</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>2010</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
         <v>27</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <f>C2+F2</f>
         <v>126</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <f>C2/G2</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="6">
         <f>F2/G2</f>
         <v>0.21428571428571427</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2011</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4">
         <v>95</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>2011</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4">
         <v>40</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <f>C3+F3</f>
         <v>135</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H13" si="0">C3/G3</f>
         <v>0.70370370370370372</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="6">
         <f t="shared" ref="I3:I13" si="1">F3/G3</f>
         <v>0.29629629629629628</v>
       </c>
@@ -557,33 +586,33 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>2012</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
         <v>143</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>2012</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4">
         <v>44</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <f>F4+C4</f>
         <v>187</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="6">
         <f t="shared" si="0"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="6">
         <f t="shared" si="1"/>
         <v>0.23529411764705882</v>
       </c>
@@ -591,33 +620,33 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>2013</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
         <v>158</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>2013</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
         <v>52</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G13" si="2">F5+C5</f>
         <v>210</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <f t="shared" si="0"/>
         <v>0.75238095238095237</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="6">
         <f t="shared" si="1"/>
         <v>0.24761904761904763</v>
       </c>
@@ -625,33 +654,33 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>2014</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4">
         <v>223</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>2014</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="4">
         <v>49</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>272</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="6">
         <f t="shared" si="0"/>
         <v>0.81985294117647056</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="6">
         <f t="shared" si="1"/>
         <v>0.18014705882352941</v>
       </c>
@@ -659,33 +688,33 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>2015</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4">
         <v>239</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>2015</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4">
         <v>61</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <f t="shared" si="0"/>
         <v>0.79666666666666663</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>0.20333333333333334</v>
       </c>
@@ -693,33 +722,33 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>2016</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
         <v>366</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>2016</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
         <v>86</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
         <v>452</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>0.80973451327433632</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>0.19026548672566371</v>
       </c>
@@ -727,33 +756,33 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>2017</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
         <v>309</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>2017</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
         <v>66</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <f t="shared" si="2"/>
         <v>375</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <f t="shared" si="0"/>
         <v>0.82399999999999995</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="6">
         <f t="shared" si="1"/>
         <v>0.17599999999999999</v>
       </c>
@@ -761,33 +790,33 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>2018</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4">
         <v>308</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>2018</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4">
         <v>78</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <f t="shared" si="2"/>
         <v>386</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
         <f t="shared" si="0"/>
         <v>0.79792746113989632</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="6">
         <f t="shared" si="1"/>
         <v>0.20207253886010362</v>
       </c>
@@ -795,33 +824,33 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>2019</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
         <v>313</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>2019</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
         <v>102</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <f t="shared" si="2"/>
         <v>415</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
         <f t="shared" si="0"/>
         <v>0.75421686746987948</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="6">
         <f t="shared" si="1"/>
         <v>0.24578313253012049</v>
       </c>
@@ -829,33 +858,33 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>2020</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
         <v>705</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>2020</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="4">
         <v>173</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <f t="shared" si="2"/>
         <v>878</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <f t="shared" si="0"/>
         <v>0.80296127562642372</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <f t="shared" si="1"/>
         <v>0.19703872437357631</v>
       </c>
@@ -863,33 +892,33 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>2021</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
         <v>251</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>2021</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4">
         <v>77</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <f t="shared" si="2"/>
         <v>328</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <f t="shared" si="0"/>
         <v>0.7652439024390244</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="6">
         <f t="shared" si="1"/>
         <v>0.2347560975609756</v>
       </c>
@@ -900,40 +929,44 @@
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18">
+      <c r="C18" s="4">
         <f>SUM(C2:C13)</f>
         <v>3209</v>
       </c>
-      <c r="F18">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4">
         <f>SUM(F2:F13)</f>
         <v>855</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <f>SUM(G2:G13)</f>
         <v>4064</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <f>C18/G18</f>
         <v>0.78961614173228345</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="6">
         <f>F18/G18</f>
         <v>0.21038385826771652</v>
       </c>
@@ -941,4 +974,1187 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AF5896-D884-4411-BA28-A2E6E71FFE15}">
+  <dimension ref="A1:J37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7">
+        <v>2010</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4">
+        <v>99</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4">
+        <v>27</v>
+      </c>
+      <c r="G2" s="4">
+        <f>D2+F2</f>
+        <v>126</v>
+      </c>
+      <c r="H2" s="7">
+        <f>G2+G3+G4</f>
+        <v>142</v>
+      </c>
+      <c r="I2" s="8">
+        <f>D2/G2</f>
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="J2" s="8">
+        <f>F2/G2</f>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G37" si="0">D3+F3</f>
+        <v>12</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
+        <f t="shared" ref="I3:I37" si="1">D3/G3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J37" si="2">F3/G3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2011</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>86</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="H5" s="7">
+        <f>G5+G6+G7</f>
+        <v>135</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.74137931034482762</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25862068965517243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="4">
+        <v>6</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2012</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4">
+        <v>130</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>31</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>161</v>
+      </c>
+      <c r="H8" s="7">
+        <f>G8+G9+G10</f>
+        <v>187</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80745341614906829</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19254658385093168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="2"/>
+        <v>0.47058823529411764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J10" s="8">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2013</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>147</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>46</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>193</v>
+      </c>
+      <c r="H11" s="7">
+        <f>G11+G12+G13</f>
+        <v>210</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.76165803108808294</v>
+      </c>
+      <c r="J11" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23834196891191708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J12" s="8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J13" s="8">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2014</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4">
+        <v>213</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="4">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="H14" s="7">
+        <f>G14+G15+G16</f>
+        <v>272</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83203125</v>
+      </c>
+      <c r="J14" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16796875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="4">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J15" s="8">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J16" s="8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="7">
+        <v>2015</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
+        <v>223</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4">
+        <v>55</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <f>G17+G18+G19</f>
+        <v>300</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.80215827338129497</v>
+      </c>
+      <c r="J17" s="8">
+        <f t="shared" si="2"/>
+        <v>0.19784172661870503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="4">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="J18" s="8">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="4">
+        <v>4</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J19" s="8">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7">
+        <v>2016</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4">
+        <v>342</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4">
+        <v>70</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="H20" s="7">
+        <f>G20+G21+G22</f>
+        <v>452</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83009708737864074</v>
+      </c>
+      <c r="J20" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16990291262135923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="4">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="4">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8">
+        <f t="shared" si="1"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="J21" s="8">
+        <f t="shared" si="2"/>
+        <v>0.36363636363636365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="4">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="8">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="7">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="4">
+        <v>290</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4">
+        <v>58</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+      <c r="H23" s="7">
+        <f>G23+G24+G25</f>
+        <v>375</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="J23" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="8">
+        <f t="shared" si="1"/>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="J24" s="8">
+        <f t="shared" si="2"/>
+        <v>0.23529411764705882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4">
+        <v>6</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="J25" s="8">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7">
+        <v>2018</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4">
+        <v>275</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4">
+        <v>61</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>336</v>
+      </c>
+      <c r="H26" s="7">
+        <f>G26+G27+G28</f>
+        <v>386</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.81845238095238093</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" si="2"/>
+        <v>0.18154761904761904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4">
+        <v>9</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71875</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" si="2"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="4">
+        <v>8</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="4">
+        <v>272</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4">
+        <v>74</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29" si="3">G29+G30+G31</f>
+        <v>415</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="1"/>
+        <v>0.78612716763005785</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="2"/>
+        <v>0.2138728323699422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4">
+        <v>24</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="2"/>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4">
+        <v>17</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="4">
+        <v>8</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68</v>
+      </c>
+      <c r="J31" s="8">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="7">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="4">
+        <v>659</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4">
+        <v>136</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="H32" s="7">
+        <f>G32+G33+G34</f>
+        <v>877</v>
+      </c>
+      <c r="I32" s="8">
+        <f t="shared" si="1"/>
+        <v>0.82893081761006293</v>
+      </c>
+      <c r="J32" s="8">
+        <f t="shared" si="2"/>
+        <v>0.1710691823899371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4">
+        <v>24</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="4">
+        <v>28</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="8">
+        <f t="shared" si="1"/>
+        <v>0.46153846153846156</v>
+      </c>
+      <c r="J33" s="8">
+        <f t="shared" si="2"/>
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4">
+        <v>21</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="4">
+        <v>9</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J34" s="8">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="7">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="4">
+        <v>238</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="4">
+        <v>62</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H35" s="7">
+        <f>G35+G36+G37</f>
+        <v>328</v>
+      </c>
+      <c r="I35" s="8">
+        <f t="shared" si="1"/>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="J35" s="8">
+        <f t="shared" si="2"/>
+        <v>0.20666666666666667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="4">
+        <v>8</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="4">
+        <v>9</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="J36" s="8">
+        <f t="shared" si="2"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="4">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="4">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="J37" s="8">
+        <f t="shared" si="2"/>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="48">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Puntos/SegundoPunto/Calculos.xlsx
+++ b/Puntos/SegundoPunto/Calculos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Usuarios\analista.pruebas6\Desktop\Personal\Personal\Taller_GestiondeDatos\Puntos\SegundoPunto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santy\OneDrive - uniminuto.edu\Documentos\Coterminal\Taller\Puntos\SegundoPunto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DC065D-D458-4263-AF7F-52F727E75CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62D7C36-42F2-4100-A76C-CE17BD9EB438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{4AEEC09F-91B2-43A0-92F2-74154DB124D8}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{4AEEC09F-91B2-43A0-92F2-74154DB124D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Año Generos" sheetId="1" r:id="rId1"/>
@@ -153,14 +153,14 @@
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -176,7 +176,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -474,11 +474,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2044D750-3428-4075-B1C8-B051FE69FE8C}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
@@ -534,19 +534,19 @@
         <v>12</v>
       </c>
       <c r="F2" s="4">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" s="4">
         <f>C2+F2</f>
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H2" s="6">
         <f>C2/G2</f>
-        <v>0.7857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="I2" s="6">
         <f>F2/G2</f>
-        <v>0.21428571428571427</v>
+        <v>0.25</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
@@ -956,19 +956,19 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4">
         <f>SUM(F2:F13)</f>
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="G18" s="4">
         <f>SUM(G2:G13)</f>
-        <v>4064</v>
+        <v>4070</v>
       </c>
       <c r="H18" s="6">
         <f>C18/G18</f>
-        <v>0.78961614173228345</v>
+        <v>0.78845208845208847</v>
       </c>
       <c r="I18" s="6">
         <f>F18/G18</f>
-        <v>0.21038385826771652</v>
+        <v>0.21154791154791155</v>
       </c>
     </row>
   </sheetData>
@@ -980,13 +980,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AF5896-D884-4411-BA28-A2E6E71FFE15}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -994,10 +994,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>8</v>
@@ -1025,19 +1025,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7">
-        <v>2010</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4">
         <v>99</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="4">
@@ -1047,29 +1047,29 @@
         <f>D2+F2</f>
         <v>126</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <f>G2+G3+G4</f>
         <v>142</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <f>D2/G2</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <f>F2/G2</f>
         <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="4">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8"/>
       <c r="F3" s="4">
         <v>4</v>
       </c>
@@ -1077,26 +1077,26 @@
         <f t="shared" ref="G3:G37" si="0">D3+F3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8">
+      <c r="H3" s="8"/>
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I37" si="1">D3/G3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <f t="shared" ref="J3:J37" si="2">F3/G3</f>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="4">
         <v>2</v>
       </c>
@@ -1104,30 +1104,30 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8">
+      <c r="H4" s="8"/>
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7">
-        <v>2011</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="4">
         <v>86</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4">
@@ -1137,29 +1137,29 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <f>G5+G6+G7</f>
         <v>135</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>0.74137931034482762</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <f t="shared" si="2"/>
         <v>0.25862068965517243</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="8"/>
       <c r="D6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="4">
         <v>5</v>
       </c>
@@ -1167,26 +1167,26 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8">
+      <c r="H6" s="8"/>
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="4">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
@@ -1194,30 +1194,30 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8">
+      <c r="H7" s="8"/>
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7">
-        <v>2012</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4">
         <v>130</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="4">
@@ -1227,29 +1227,29 @@
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <f>G8+G9+G10</f>
         <v>187</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>0.80745341614906829</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>0.19254658385093168</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="4">
         <v>9</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="4">
         <v>8</v>
       </c>
@@ -1257,26 +1257,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8">
+      <c r="H9" s="8"/>
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>0.52941176470588236</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>0.47058823529411764</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="4">
         <v>4</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8"/>
       <c r="F10" s="4">
         <v>5</v>
       </c>
@@ -1284,30 +1284,30 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8">
+      <c r="H10" s="8"/>
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="8">
+        <v>2013</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7">
-        <v>2013</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>147</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="4">
@@ -1317,29 +1317,29 @@
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <f>G11+G12+G13</f>
         <v>210</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>0.76165803108808294</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>0.23834196891191708</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="4">
         <v>8</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
@@ -1347,26 +1347,26 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8">
+      <c r="H12" s="8"/>
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="4">
         <v>2</v>
       </c>
@@ -1374,30 +1374,30 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8">
+      <c r="H13" s="8"/>
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="8">
+        <v>2014</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="7">
-        <v>2014</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="4">
         <v>213</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="4">
@@ -1407,29 +1407,29 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="8">
         <f>G14+G15+G16</f>
         <v>272</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <f t="shared" si="1"/>
         <v>0.83203125</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <f t="shared" si="2"/>
         <v>0.16796875</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="4">
         <v>6</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="4">
         <v>4</v>
       </c>
@@ -1437,26 +1437,26 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8">
+      <c r="H15" s="8"/>
+      <c r="I15" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="4">
         <v>4</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="4">
         <v>2</v>
       </c>
@@ -1464,30 +1464,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8">
+      <c r="H16" s="8"/>
+      <c r="I16" s="7">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="7">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="7">
-        <v>2015</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4">
         <v>223</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="4">
@@ -1497,29 +1497,29 @@
         <f t="shared" si="0"/>
         <v>278</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="8">
         <f>G17+G18+G19</f>
         <v>300</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="7">
         <f t="shared" si="1"/>
         <v>0.80215827338129497</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="7">
         <f t="shared" si="2"/>
         <v>0.19784172661870503</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="8"/>
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="4">
         <v>12</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
       <c r="F18" s="4">
         <v>4</v>
       </c>
@@ -1527,26 +1527,26 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8">
+      <c r="H18" s="8"/>
+      <c r="I18" s="7">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="8"/>
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="8"/>
       <c r="F19" s="4">
         <v>2</v>
       </c>
@@ -1554,30 +1554,30 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8">
+      <c r="H19" s="8"/>
+      <c r="I19" s="7">
         <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="7">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="7">
-        <v>2016</v>
-      </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="4">
         <v>342</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F20" s="4">
@@ -1587,29 +1587,29 @@
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8">
         <f>G20+G21+G22</f>
         <v>452</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="7">
         <f t="shared" si="1"/>
         <v>0.83009708737864074</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="7">
         <f t="shared" si="2"/>
         <v>0.16990291262135923</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="8"/>
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="4">
         <v>14</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
       <c r="F21" s="4">
         <v>8</v>
       </c>
@@ -1617,26 +1617,26 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8">
+      <c r="H21" s="8"/>
+      <c r="I21" s="7">
         <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="7">
         <f t="shared" si="2"/>
         <v>0.36363636363636365</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="8"/>
+      <c r="B22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4">
         <v>10</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="4">
         <v>8</v>
       </c>
@@ -1644,30 +1644,30 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8">
+      <c r="H22" s="8"/>
+      <c r="I22" s="7">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22" s="7">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="7">
-        <v>2017</v>
-      </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="4">
         <v>290</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="4">
@@ -1677,29 +1677,29 @@
         <f t="shared" si="0"/>
         <v>348</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="8">
         <f>G23+G24+G25</f>
         <v>375</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="7">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="7">
         <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="4">
         <v>13</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8"/>
       <c r="F24" s="4">
         <v>4</v>
       </c>
@@ -1707,26 +1707,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8">
+      <c r="H24" s="8"/>
+      <c r="I24" s="7">
         <f t="shared" si="1"/>
         <v>0.76470588235294112</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="7">
         <f t="shared" si="2"/>
         <v>0.23529411764705882</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="4">
         <v>6</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8"/>
       <c r="F25" s="4">
         <v>4</v>
       </c>
@@ -1734,30 +1734,30 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8">
+      <c r="H25" s="8"/>
+      <c r="I25" s="7">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="7">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="7">
-        <v>2018</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="4">
         <v>275</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="4">
@@ -1767,29 +1767,29 @@
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="8">
         <f>G26+G27+G28</f>
         <v>386</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f t="shared" si="1"/>
         <v>0.81845238095238093</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="7">
         <f t="shared" si="2"/>
         <v>0.18154761904761904</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8"/>
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="4">
         <v>23</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="8"/>
       <c r="F27" s="4">
         <v>9</v>
       </c>
@@ -1797,26 +1797,26 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8">
+      <c r="H27" s="8"/>
+      <c r="I27" s="7">
         <f t="shared" si="1"/>
         <v>0.71875</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <f t="shared" si="2"/>
         <v>0.28125</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="8"/>
       <c r="D28" s="4">
         <v>10</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="8"/>
       <c r="F28" s="4">
         <v>8</v>
       </c>
@@ -1824,30 +1824,30 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8">
+      <c r="H28" s="8"/>
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="7">
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="8">
+        <v>2019</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="7">
-        <v>2019</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D29" s="4">
         <v>272</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="4">
@@ -1857,29 +1857,29 @@
         <f t="shared" si="0"/>
         <v>346</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="8">
         <f t="shared" ref="H29" si="3">G29+G30+G31</f>
         <v>415</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f t="shared" si="1"/>
         <v>0.78612716763005785</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="7">
         <f t="shared" si="2"/>
         <v>0.2138728323699422</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="4">
         <v>24</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="8"/>
       <c r="F30" s="4">
         <v>20</v>
       </c>
@@ -1887,26 +1887,26 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="H30" s="7"/>
-      <c r="I30" s="8">
+      <c r="H30" s="8"/>
+      <c r="I30" s="7">
         <f t="shared" si="1"/>
         <v>0.54545454545454541</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="7">
         <f t="shared" si="2"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="4">
         <v>17</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="4">
         <v>8</v>
       </c>
@@ -1914,30 +1914,30 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="8">
+      <c r="H31" s="8"/>
+      <c r="I31" s="7">
         <f t="shared" si="1"/>
         <v>0.68</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J31" s="7">
         <f t="shared" si="2"/>
         <v>0.32</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="8">
+        <v>2020</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="7">
-        <v>2020</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D32" s="4">
         <v>659</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F32" s="4">
@@ -1947,29 +1947,29 @@
         <f t="shared" si="0"/>
         <v>795</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="8">
         <f>G32+G33+G34</f>
         <v>877</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="7">
         <f t="shared" si="1"/>
         <v>0.82893081761006293</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="7">
         <f t="shared" si="2"/>
         <v>0.1710691823899371</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="4">
         <v>24</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="4">
         <v>28</v>
       </c>
@@ -1977,26 +1977,26 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8">
+      <c r="H33" s="8"/>
+      <c r="I33" s="7">
         <f t="shared" si="1"/>
         <v>0.46153846153846156</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J33" s="7">
         <f t="shared" si="2"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="8"/>
+      <c r="B34" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="4">
         <v>21</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="4">
         <v>9</v>
       </c>
@@ -2004,30 +2004,30 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8">
+      <c r="H34" s="8"/>
+      <c r="I34" s="7">
         <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J34" s="7">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="8">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="7">
-        <v>2021</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4">
         <v>238</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="4">
@@ -2037,29 +2037,29 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="8">
         <f>G35+G36+G37</f>
         <v>328</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="7">
         <f t="shared" si="1"/>
         <v>0.79333333333333333</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J35" s="7">
         <f t="shared" si="2"/>
         <v>0.20666666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="8"/>
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="4">
         <v>8</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4">
         <v>9</v>
       </c>
@@ -2067,26 +2067,26 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8">
+      <c r="H36" s="8"/>
+      <c r="I36" s="7">
         <f t="shared" si="1"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="7">
         <f t="shared" si="2"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="8"/>
+      <c r="B37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="C37" s="8"/>
       <c r="D37" s="4">
         <v>5</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4">
         <v>6</v>
       </c>
@@ -2094,35 +2094,38 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8">
+      <c r="H37" s="8"/>
+      <c r="I37" s="7">
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="J37" s="8">
+      <c r="J37" s="7">
         <f t="shared" si="2"/>
         <v>0.54545454545454541</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="H35:H37"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="C23:C25"/>
@@ -2131,29 +2134,26 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="H11:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="H29:H31"/>
-    <mergeCell ref="H32:H34"/>
-    <mergeCell ref="H35:H37"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C14:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
